--- a/meta/3-2-2-1.xlsx
+++ b/meta/3-2-2-1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28665" windowHeight="12345"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="2" r:id="rId1"/>
@@ -122,52 +122,46 @@
 Статистические публикации НСК: ежемесячный доклад «Социально-экономическое положение КР», статистические сборники: "Статистический ежегодник КР", «Демографический ежегодник КР», «Социальные тенденции КР», «Женщины и мужчины КР», "Уровень жизни населения КР", «Здоровье населения и здравоохранение в КР» на официальном сайте НСК КР: http://www.stat.kg/ru/publications/</t>
   </si>
   <si>
-    <t>3.4 К 2030 году уменьшить на треть преждевременную смертность от неинфекционных заболеваний посредством профилактики и лечения и поддержания психического здоровья и благополучия</t>
-  </si>
-  <si>
-    <t>3.4.1.1 Ожидаемая продолжительность жизни в 15 лет, 45 лет, 65 лет по полу и территории</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ожидаемая продолжительность жизни (число лет) для лиц, достигших определенного возраста (15, 45 и 65 лет) представляет собой среднее число лет, которое предстояло бы прожить лицам, достигшим соответстующего возраста (15, 45 и 65 лет), при условии, что в каждом следующем возрасте современный уровень смертности не изменится. </t>
-  </si>
-  <si>
-    <t>Ожидаемая продолжительность жизни (ОПЖ) при рождении – число лет, которое в среднем предстояло бы прожить человеку из поколения родившихся при условии, что на протяжении всей жизни этого поколения уровень смертности в каждом возрасте останется таким, как в данный период.
-Вероятность дожития до следующего возраста представляет собой долю людей, доживающих до конца данного возрастного интервала из числа доживших до его начала. 
-В реальном поколении, изменяющимся только под влиянием смертности, можно определить не только коэффициент, но и вероятность смерти для человека, дожившего до точного возраста Х. 
-Вероятность смерти в данном возрасте - показатель, равный доле умерших в данном интервале возраста из доживших до начала этого. Для последнего возрастного интервала 100 лет и старше в полных таблицах смертности (или 85 лет и старше - в кратких) вероятность смерти равна 1.
-Таблицы смертности представляют собой упорядоченную последовательность величин, показывающих, как некоторое условное поколение родившихся постепенно уменьшалось бы при переходе от младших возрастов к старшим под влиянием уровня смертности, существующего в данном году. Главным показателем таблиц смертности является ожидаемая продолжительность жизни при рождении.
-Единица измерения показателя - лет.</t>
-  </si>
-  <si>
-    <t>Продолжительность жизни – один из важнейших индикаторов качества жизни людей. Изменение величины данного показателя может быть следствием проведения экономических, политических, социальных реформ, а также изменения идеологии общества. ОПЖ служит основным показателем, применяемым для оценки здоровья населения, так как он свидетельствует об уровне смертности среди населения. ОПЖ характеризует не только текущее состояние, но и качество жизни соответствующих поколений в прошлом, так как состояние здоровья конкретного человека в значительной мере зависит от условий его существования с самого момента рождения. 
-Анализ данного показателя позволяет оценить уровень социально-экономического благополучия населения, эффективность проводимых санитарно-гигиенических профилактических мероприятий, а также качества лечебно-профилактического обслуживания населения республики в целом и в разрезе административных 
-территорий. 
-Существенное влияние на показатель ОПЖ оказывает как детская смертность, так и общий показатель смертности. 
-Единица измерения показателя - лет.</t>
-  </si>
-  <si>
-    <t>При расчетах используются данные о числе умерших, распределенных по полу  и однолетним возрастным группам (из таблицы смертности), и данные ежегодной оценки половозрастного состава населения. Источником информации о смертности населения являются актовые записи о смерти, которые составляются сотрудниками органов ЗАГС на основе медицинских свидетельств о смерти, выдаваемых населению врачом или средним медицинским персоналом в организациях здравоохранения.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Методом статистического наблюдения является сплошной учет случаев смерти, зарегистрированных в органах ЗАГС на основании заключения организации здравоохранения - медицинских свидетельств о рождении.
-Сбор данных проводится на основании записей актов гражданского состояния о рождениях, по данным  Государственного учреждения «Кызмат» при Управлении делами Президента Кыргызской Республики, в Нацстатком посредством СМЭВ "Тундук" (ежемесячно). Свод данных по республике осуществляется Нацстаткомом. 
-Показатели ожидаемой продолжительности жизни получаются в результате расчета таблиц смертности. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ОПЖ рассчитывается путем построения таблиц смертности и таблиц дожития.При исчислении ОПЖ подсчитывается число человеко-лет, которое предстоит прожить дожившим до соответствующего возраста за весь период предстоящей жизни (от соответствующего возраста и до предельного). Полученная сумма человеко-лет делится на число доживших до соответствующего возраста. 
-ОПЖ для лиц, достигших определенного возраста (15, 45 и 65 лет) - (e(x) определяется по формуле: е(х) = Tx / Ix , где: х - возраст (15, 45, 65 лет); Tx - число человеко-лет; Ix - число человек, доживших до соответствующего возраста. 
-</t>
-  </si>
-  <si>
-    <t>Таблицы смертности строятся на определенную календарную дату, что важно для избежания необоснованных выводов о том, что «каждый мужчина проживет в среднем 64 года, а женщина - 73 года». Следует отметить, что такое заявление правомерно лишь при следующей оговорке: «если на протяжении их жизни сохранятся те же возрастные показатели смертности, которые были в год расчета».
-Кроме того, практически все таблицы смертности строятся не для реальных, а для условных поколений. Реальное поколение, как уже отмечалось, - это поколение в обычном понимании, т.е. совокупность родившихся в определенном малом интервале времени (как правило, в течение календарного года) или, точнее, совокупность родившихся в течение интервала времени, различиями внутри которого можно пренебречь. 
-Анализ таблиц смертности показывает, чем выше уровень смертности среди детей в возрасте от 0 до 5 лет, тем ниже показатель ОПЖ при рождении и с увеличением возраста средняя продолжительность жизни убывает.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Проводится логический и арифметический контроль отчетных данных, анализ выходных таблиц. Процедура проверки правильности данных в актовых записях о смерти осуществляется путем логического контроля, заложенного в программном обеспечении по вводу и разработке данных. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Национальное определение показателя, используемое в статистике, соответствует его международному определению. 
+    <t>3.2 К 2030 году положить конец предотвратимой смертности новорожденных и детей в возрасте до пяти лет, при этом все страны должны стремиться снизить уменьшить неонатальную смертность до не более 12 случаев на 1000 живорождений, а смертность детей в возрасте до пяти лет до не более 25 на 1000 живорождений</t>
+  </si>
+  <si>
+    <t>3.2.2.1 Суммарный коэффициент рождаемости городского и сельского населения</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Суммарный коэффициент рождаемости (коэффициент фертильности женщин или число деторождений на одну женщину) показывает, сколько в среднем детей родила бы одна женщина на протяжении всего репродуктивного периода (15-49 лет) при сохранении в каждом возрасте уровня рождаемости того года, для которого вычислены возрастные коэффициенты рождаемости. Его величина не зависит от возрастного состава населения и характеризует средний уровень рождаемости в данный календарный период.
+Для характеристики уровня рождаемости среди городского и сельского населения (по месту проживания населения) рассчитываются показатели суммарного коэффициента рождаемости (СКР) по населению, проживающему в городских поселениях и сельской местности.
+Данные показатели рассчитываются также, как и общий суммарный коэффициент рождаемости, но применительно к отдельной группе населения (городскому или сельскому населению). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рождаемость - процесс, который определяется частотой и характеристиками деторождений (возраст матери, очередность рождения и др.) в данном населении. 
+По определению ВОЗ, которое используется в Кыргызстане, живорождением является полное изгнание или извлечение продукта зачатия из организма матери вне зависимости от продолжительности беременности, причем плод после такого отделения дышит или проявляет другие признаки жизни, такие как сердцебиение, пульсация пуповины или иные движения произвольной мускулатуры, независимо от того, прорезана ли пуповина и отделилась ли плацента - каждый продукт такого зачатия рассматривается как живорожденный.
+Население городское - население, проживающее в городских поселениях. Городскими поселениями считаются населенные пункты, утвержденные Жогорку Кенешем Кыргызской Республики в качестве городов, поселков городского типа.
+Население сельское - население, проживающее в сельской местности. Населенные пункты, не классифицируемые в качестве городских, считаются сельскими. </t>
+  </si>
+  <si>
+    <t>СКР является наиболее точным измерителем уровня рождаемости и характеризует среднее число рождений детей у одной женщины за всю ее жизнь, независимо от смертности и возрастного состава. В международной практике используется для измерения уровня рождаемости по странам.
+Анализ индикатора используется при планировании мероприятий по улучшению здоровья женщин и детей в КР, позволяет оценить эффективность реализуемых в республике программ и стратегий по улучшению репродуктивного здоровья женщин, а также информационных кампаний по данному вопросу.</t>
+  </si>
+  <si>
+    <t>Источником информации являются сведения о рождениях, получаемые при регистрации актов гражданского состояния по мере возникновения этих событий в органах ЗАГС (Государственного учреждения «Кызмат» при Управлении делами Президента Кыргызской Республики). Государственная регистрация рождения производится ЗАГСами по месту рождения ребенка либо по месту жительства родителей (или одного из родителей). Основанием для регистрации ребенка является медицинское свидетельство о рождении ребенка (форма 103/у Минздрава) и заявление о рождении, которое делается родителями или одним из них. Медицинское свидетельство о рождении выдается родильным домом или больницей, установившей факт и время рождения ребенка.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Методом статистического наблюдения является сплошной учет случаев рождений у женщин в возрасте 15-49 лет, зарегистрированных в органах ЗАГС на основании заключения медицинской организации Минздрава - медицинских свидетельств о рождении.
+Сбор данных проводится на основании записей актов гражданского состояния о рождениях, предоставляемых Государственного учреждения «Кызмат» при Управлении делами Президента Кыргызской Республики в Нацстатком посредством СМЭВ "Тундук" (ежемесячно). Свод данных по республике осуществляется Нацстаткомом. </t>
+  </si>
+  <si>
+    <t>СКР рассчитывается как сумма повозрастных коэффициентов рождаемости с умножением их на длину каждого возрастного интервала в целых годах (при однолетних коэффициентах множитель равен 1, при пятилетних — 5, и т. д.). Сумма в итоге делится на 1000, т.е. показатель выражается в расчете на одну женщину в среднем.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СКР является одним из сводных, итоговых показателей, которые строятся как по методу реального, так и условного поколения. Используемая формула расчета СКР относится к условному поколению, т.е., мы рассматриваем все возрастные коэффициенты рождаемости, относящиеся к разным реальным поколениям женщин, условно как относящиеся к одному поколению, будто бы прожившему в данном одном календарном году, в году наблюдения, всю свою репродуктивную жизнь, с 15 до 49 лет.  
+Величина СКР находится в зависимости от уровня и изменений брачности: при повышении или сокращении уровня брачности СКР, соответственно, повышается или сокращается. При этом, число детей в каждой отдельной семье может оставаться неизменным или меняться в противоположную сторону, нежели брачность.
+Величина СКР зависит также от изменения сроков рождения детей, от распределения интервалов между последовательными рождениями на протяжении репродуктивного периода жизни женщины (англ. - timing of births) или иногда «календарем рождений». </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Проводится логический и арифметический контроль отчетных данных, анализ выходных таблиц. Процедура проверки правильности данных в актовых записях о рождении осуществляется путем логического контроля, заложенного в программном обеспечении по вводу и разработке данных. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Национальное определение показателя, используемое в статистике, соответствует его международному определению. СКР применяется в международной практике для измерения уровня рождаемости и сопоставления по странам мира.
 Для стандартизации используются модельные возрастные структуры, разработанные Всемирной Организацией Здравоохранения (ВОЗ), так называемые Европейский стандарт и Всемирный стандарт ВОЗ. </t>
   </si>
 </sst>
@@ -637,7 +631,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -729,7 +723,7 @@
       </c>
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="1:2" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="155.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
@@ -737,7 +731,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="201.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="183" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
@@ -759,7 +753,7 @@
       </c>
       <c r="B15" s="2"/>
     </row>
-    <row r="16" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="126" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>15</v>
       </c>
@@ -767,7 +761,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>16</v>
       </c>
@@ -789,7 +783,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="190.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>19</v>
       </c>
@@ -827,7 +821,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
@@ -835,7 +829,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="243.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
